--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR004.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR004.xlsx
@@ -11,7 +11,6 @@
     <sheet name="Export" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">Export!$1:$1</definedName>
     <definedName function="false" hidden="false" name="abc" vbProcedure="false">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName function="false" hidden="false" name="def" vbProcedure="false">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName function="false" hidden="false" name="kkkk" vbProcedure="false">#REF!</definedName>
@@ -31,7 +30,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_Parse_In" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_Parse_Out" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_Sort" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">Export!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="い" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="概要_基準日設定" vbProcedure="false">#REF!</definedName>
   </definedNames>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">職場 ：</t>
   </si>
@@ -60,99 +60,6 @@
   </si>
   <si>
     <t xml:space="preserve">【日次項目】</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27 日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28 日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31 日</t>
   </si>
   <si>
     <t xml:space="preserve">【月次項目】</t>
@@ -207,7 +114,7 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="ＭＳ ゴシック"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -347,11 +254,11 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
@@ -368,15 +275,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -384,35 +291,35 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="7" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="4" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="4" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="8" fillId="4" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -420,23 +327,23 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -448,15 +355,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="9" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="9" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -468,8 +375,8 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="標準_年間勤務台帳" xfId="20"/>
-    <cellStyle name="標準 10" xfId="21"/>
+    <cellStyle name="標準 10" xfId="20"/>
+    <cellStyle name="標準_年間勤務台帳" xfId="21"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -539,18 +446,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1048576"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC34" activeCellId="0" sqref="AC34"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.26953125" defaultRowHeight="11.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.26953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="5.26"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -582,7 +489,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -612,7 +519,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -642,7 +549,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -672,7 +579,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
@@ -700,7 +607,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
@@ -728,11 +635,9 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
       <c r="E7" s="11"/>
@@ -758,11 +663,9 @@
       <c r="Y7" s="11"/>
       <c r="Z7" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="15"/>
-      <c r="B8" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="B8" s="16"/>
       <c r="C8" s="17"/>
       <c r="D8" s="18"/>
       <c r="E8" s="17"/>
@@ -788,11 +691,9 @@
       <c r="Y8" s="17"/>
       <c r="Z8" s="18"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="9"/>
-      <c r="B9" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
       <c r="E9" s="11"/>
@@ -818,11 +719,9 @@
       <c r="Y9" s="11"/>
       <c r="Z9" s="12"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="15"/>
-      <c r="B10" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="B10" s="16"/>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
       <c r="E10" s="17"/>
@@ -848,11 +747,9 @@
       <c r="Y10" s="17"/>
       <c r="Z10" s="18"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="9"/>
-      <c r="B11" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
       <c r="E11" s="11"/>
@@ -878,11 +775,9 @@
       <c r="Y11" s="11"/>
       <c r="Z11" s="12"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="15"/>
-      <c r="B12" s="16" t="s">
-        <v>10</v>
-      </c>
+      <c r="B12" s="16"/>
       <c r="C12" s="17"/>
       <c r="D12" s="18"/>
       <c r="E12" s="17"/>
@@ -908,11 +803,9 @@
       <c r="Y12" s="17"/>
       <c r="Z12" s="18"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="9"/>
-      <c r="B13" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
       <c r="E13" s="11"/>
@@ -938,11 +831,9 @@
       <c r="Y13" s="11"/>
       <c r="Z13" s="12"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="15"/>
-      <c r="B14" s="16" t="s">
-        <v>12</v>
-      </c>
+      <c r="B14" s="16"/>
       <c r="C14" s="17"/>
       <c r="D14" s="18"/>
       <c r="E14" s="17"/>
@@ -968,11 +859,9 @@
       <c r="Y14" s="17"/>
       <c r="Z14" s="18"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="9"/>
-      <c r="B15" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
       <c r="E15" s="11"/>
@@ -998,11 +887,9 @@
       <c r="Y15" s="11"/>
       <c r="Z15" s="12"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="15"/>
-      <c r="B16" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="B16" s="16"/>
       <c r="C16" s="17"/>
       <c r="D16" s="18"/>
       <c r="E16" s="17"/>
@@ -1028,11 +915,9 @@
       <c r="Y16" s="17"/>
       <c r="Z16" s="18"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="9"/>
-      <c r="B17" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
       <c r="E17" s="11"/>
@@ -1058,11 +943,9 @@
       <c r="Y17" s="11"/>
       <c r="Z17" s="12"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="15"/>
-      <c r="B18" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="B18" s="16"/>
       <c r="C18" s="17"/>
       <c r="D18" s="18"/>
       <c r="E18" s="17"/>
@@ -1088,11 +971,9 @@
       <c r="Y18" s="17"/>
       <c r="Z18" s="18"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="9"/>
-      <c r="B19" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="B19" s="10"/>
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
       <c r="E19" s="11"/>
@@ -1118,11 +999,9 @@
       <c r="Y19" s="11"/>
       <c r="Z19" s="12"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="15"/>
-      <c r="B20" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="B20" s="16"/>
       <c r="C20" s="17"/>
       <c r="D20" s="18"/>
       <c r="E20" s="17"/>
@@ -1148,11 +1027,9 @@
       <c r="Y20" s="17"/>
       <c r="Z20" s="18"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="9"/>
-      <c r="B21" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="B21" s="10"/>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
       <c r="E21" s="11"/>
@@ -1178,11 +1055,9 @@
       <c r="Y21" s="11"/>
       <c r="Z21" s="12"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="15"/>
-      <c r="B22" s="16" t="s">
-        <v>20</v>
-      </c>
+      <c r="B22" s="16"/>
       <c r="C22" s="17"/>
       <c r="D22" s="18"/>
       <c r="E22" s="17"/>
@@ -1208,11 +1083,9 @@
       <c r="Y22" s="17"/>
       <c r="Z22" s="18"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="9"/>
-      <c r="B23" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="B23" s="10"/>
       <c r="C23" s="11"/>
       <c r="D23" s="12"/>
       <c r="E23" s="11"/>
@@ -1238,11 +1111,9 @@
       <c r="Y23" s="11"/>
       <c r="Z23" s="12"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="15"/>
-      <c r="B24" s="16" t="s">
-        <v>22</v>
-      </c>
+      <c r="B24" s="16"/>
       <c r="C24" s="17"/>
       <c r="D24" s="18"/>
       <c r="E24" s="17"/>
@@ -1268,11 +1139,9 @@
       <c r="Y24" s="17"/>
       <c r="Z24" s="18"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="9"/>
-      <c r="B25" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="B25" s="10"/>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
       <c r="E25" s="11"/>
@@ -1298,11 +1167,9 @@
       <c r="Y25" s="11"/>
       <c r="Z25" s="12"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="15"/>
-      <c r="B26" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="B26" s="16"/>
       <c r="C26" s="17"/>
       <c r="D26" s="18"/>
       <c r="E26" s="17"/>
@@ -1328,11 +1195,9 @@
       <c r="Y26" s="17"/>
       <c r="Z26" s="18"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="9"/>
-      <c r="B27" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="B27" s="10"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
       <c r="E27" s="11"/>
@@ -1358,11 +1223,9 @@
       <c r="Y27" s="11"/>
       <c r="Z27" s="12"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="15"/>
-      <c r="B28" s="16" t="s">
-        <v>26</v>
-      </c>
+      <c r="B28" s="16"/>
       <c r="C28" s="17"/>
       <c r="D28" s="18"/>
       <c r="E28" s="17"/>
@@ -1388,11 +1251,9 @@
       <c r="Y28" s="17"/>
       <c r="Z28" s="18"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="9"/>
-      <c r="B29" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="B29" s="10"/>
       <c r="C29" s="11"/>
       <c r="D29" s="12"/>
       <c r="E29" s="11"/>
@@ -1418,11 +1279,9 @@
       <c r="Y29" s="11"/>
       <c r="Z29" s="12"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="15"/>
-      <c r="B30" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="B30" s="16"/>
       <c r="C30" s="17"/>
       <c r="D30" s="18"/>
       <c r="E30" s="17"/>
@@ -1448,11 +1307,9 @@
       <c r="Y30" s="17"/>
       <c r="Z30" s="18"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="9"/>
-      <c r="B31" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="B31" s="10"/>
       <c r="C31" s="11"/>
       <c r="D31" s="12"/>
       <c r="E31" s="11"/>
@@ -1478,11 +1335,9 @@
       <c r="Y31" s="11"/>
       <c r="Z31" s="12"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="15"/>
-      <c r="B32" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="B32" s="16"/>
       <c r="C32" s="17"/>
       <c r="D32" s="18"/>
       <c r="E32" s="17"/>
@@ -1508,11 +1363,9 @@
       <c r="Y32" s="17"/>
       <c r="Z32" s="18"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="9"/>
-      <c r="B33" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="B33" s="10"/>
       <c r="C33" s="11"/>
       <c r="D33" s="12"/>
       <c r="E33" s="11"/>
@@ -1538,11 +1391,9 @@
       <c r="Y33" s="11"/>
       <c r="Z33" s="12"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="15"/>
-      <c r="B34" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B34" s="16"/>
       <c r="C34" s="17"/>
       <c r="D34" s="18"/>
       <c r="E34" s="17"/>
@@ -1568,11 +1419,9 @@
       <c r="Y34" s="17"/>
       <c r="Z34" s="18"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="9"/>
-      <c r="B35" s="10" t="s">
-        <v>33</v>
-      </c>
+      <c r="B35" s="10"/>
       <c r="C35" s="11"/>
       <c r="D35" s="12"/>
       <c r="E35" s="11"/>
@@ -1598,11 +1447,9 @@
       <c r="Y35" s="11"/>
       <c r="Z35" s="12"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="15"/>
-      <c r="B36" s="16" t="s">
-        <v>34</v>
-      </c>
+      <c r="B36" s="16"/>
       <c r="C36" s="17"/>
       <c r="D36" s="18"/>
       <c r="E36" s="17"/>
@@ -1628,11 +1475,9 @@
       <c r="Y36" s="17"/>
       <c r="Z36" s="18"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="9"/>
-      <c r="B37" s="10" t="s">
-        <v>35</v>
-      </c>
+      <c r="B37" s="10"/>
       <c r="C37" s="11"/>
       <c r="D37" s="12"/>
       <c r="E37" s="11"/>
@@ -1658,9 +1503,9 @@
       <c r="Y37" s="11"/>
       <c r="Z37" s="12"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="21" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B38" s="22"/>
       <c r="C38" s="23"/>
@@ -1688,7 +1533,7 @@
       <c r="Y38" s="23"/>
       <c r="Z38" s="23"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1716,7 +1561,7 @@
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="24"/>
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
@@ -1744,7 +1589,7 @@
       <c r="Y40" s="24"/>
       <c r="Z40" s="24"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
@@ -1772,7 +1617,7 @@
       <c r="Y41" s="25"/>
       <c r="Z41" s="25"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="24"/>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>
@@ -1800,7 +1645,7 @@
       <c r="Y42" s="24"/>
       <c r="Z42" s="24"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="25"/>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
@@ -1828,7 +1673,7 @@
       <c r="Y43" s="25"/>
       <c r="Z43" s="25"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="24"/>
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
@@ -1856,7 +1701,7 @@
       <c r="Y44" s="24"/>
       <c r="Z44" s="24"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
@@ -1884,7 +1729,7 @@
       <c r="Y45" s="25"/>
       <c r="Z45" s="25"/>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="24"/>
       <c r="B46" s="24"/>
       <c r="C46" s="24"/>
@@ -1912,7 +1757,7 @@
       <c r="Y46" s="24"/>
       <c r="Z46" s="24"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="25"/>
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
@@ -1940,24 +1785,6 @@
       <c r="Y47" s="25"/>
       <c r="Z47" s="25"/>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="130">
     <mergeCell ref="A5:B5"/>
@@ -2093,9 +1920,9 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.39375" right="0.39375" top="0.984027777777778" bottom="0.39375" header="0.39375" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="92" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;"ＭＳ ゴシック,Regular"日通システム株式会社&amp;C&amp;"ＭＳ ゴシック,Regular"&amp;16年休管理表&amp;R&amp;"ＭＳ ゴシック,Regular"yyyy/mm/dd HH:MM　
+    <oddHeader>&amp;L&amp;"ＭＳ ゴシック,Regular"日通システム株式会社&amp;C&amp;"ＭＳ ゴシック,Regular"&amp;16年間勤務台帳&amp;R&amp;"ＭＳ ゴシック,Regular"yyyy/mm/dd HH:MM　
 page&amp;P</oddHeader>
     <oddFooter/>
   </headerFooter>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR004.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR004.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KWR003\UniversalK\nts.uk\uk.at\at.file\nts.uk.file.at.infra\src\main\resources\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nhi.NTT\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="KWR004_年間勤務台帳" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,6 @@
     <definedName name="def">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="kkkk" localSheetId="0">#REF!</definedName>
     <definedName name="kkkk">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">KWR004_年間勤務台帳!$A$1:$Z$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">KWR004_年間勤務台帳!$1:$1</definedName>
     <definedName name="Print_Titles_0" localSheetId="0">#REF!</definedName>
     <definedName name="wrn.MIND.">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
@@ -55,7 +54,7 @@
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]h:mm"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -350,8 +349,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -359,6 +367,21 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -368,31 +391,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -747,14 +746,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="110" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="AC20" sqref="AC20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="11.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1024" width="5.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="11.25" customHeight="1">
+    <row r="1" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -765,12 +766,12 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
@@ -782,7 +783,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="11.25" customHeight="1">
+    <row r="2" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -810,7 +811,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="11.25" customHeight="1">
+    <row r="3" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -838,7 +839,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="11.25" customHeight="1">
+    <row r="4" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -866,37 +867,37 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-    </row>
-    <row r="6" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
+    <row r="5" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+    </row>
+    <row r="6" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="30"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
       <c r="E6" s="5"/>
@@ -922,9 +923,9 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
+    <row r="7" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="7"/>
@@ -950,9 +951,9 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="8"/>
     </row>
-    <row r="8" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
+    <row r="8" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="11"/>
       <c r="D8" s="12"/>
       <c r="E8" s="11"/>
@@ -978,9 +979,9 @@
       <c r="Y8" s="11"/>
       <c r="Z8" s="12"/>
     </row>
-    <row r="9" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
+    <row r="9" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
       <c r="E9" s="7"/>
@@ -1006,9 +1007,9 @@
       <c r="Y9" s="7"/>
       <c r="Z9" s="8"/>
     </row>
-    <row r="10" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
+    <row r="10" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="11"/>
       <c r="D10" s="12"/>
       <c r="E10" s="11"/>
@@ -1034,9 +1035,9 @@
       <c r="Y10" s="11"/>
       <c r="Z10" s="12"/>
     </row>
-    <row r="11" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
+    <row r="11" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="7"/>
@@ -1062,9 +1063,9 @@
       <c r="Y11" s="7"/>
       <c r="Z11" s="8"/>
     </row>
-    <row r="12" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
+    <row r="12" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="11"/>
       <c r="D12" s="12"/>
       <c r="E12" s="11"/>
@@ -1090,9 +1091,9 @@
       <c r="Y12" s="11"/>
       <c r="Z12" s="12"/>
     </row>
-    <row r="13" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
+    <row r="13" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="7"/>
@@ -1118,9 +1119,9 @@
       <c r="Y13" s="7"/>
       <c r="Z13" s="8"/>
     </row>
-    <row r="14" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
+    <row r="14" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="11"/>
       <c r="D14" s="12"/>
       <c r="E14" s="11"/>
@@ -1146,9 +1147,9 @@
       <c r="Y14" s="11"/>
       <c r="Z14" s="12"/>
     </row>
-    <row r="15" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
+    <row r="15" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
       <c r="E15" s="7"/>
@@ -1174,9 +1175,9 @@
       <c r="Y15" s="7"/>
       <c r="Z15" s="8"/>
     </row>
-    <row r="16" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
+    <row r="16" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
       <c r="E16" s="11"/>
@@ -1202,9 +1203,9 @@
       <c r="Y16" s="11"/>
       <c r="Z16" s="12"/>
     </row>
-    <row r="17" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
+    <row r="17" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="7"/>
@@ -1230,9 +1231,9 @@
       <c r="Y17" s="7"/>
       <c r="Z17" s="8"/>
     </row>
-    <row r="18" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
+    <row r="18" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
       <c r="E18" s="11"/>
@@ -1258,9 +1259,9 @@
       <c r="Y18" s="11"/>
       <c r="Z18" s="12"/>
     </row>
-    <row r="19" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
+    <row r="19" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
       <c r="E19" s="7"/>
@@ -1286,9 +1287,9 @@
       <c r="Y19" s="7"/>
       <c r="Z19" s="8"/>
     </row>
-    <row r="20" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27"/>
+    <row r="20" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
       <c r="E20" s="11"/>
@@ -1314,9 +1315,9 @@
       <c r="Y20" s="11"/>
       <c r="Z20" s="12"/>
     </row>
-    <row r="21" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
+    <row r="21" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="7"/>
       <c r="D21" s="8"/>
       <c r="E21" s="7"/>
@@ -1342,9 +1343,9 @@
       <c r="Y21" s="7"/>
       <c r="Z21" s="8"/>
     </row>
-    <row r="22" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27"/>
+    <row r="22" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
       <c r="E22" s="11"/>
@@ -1370,9 +1371,9 @@
       <c r="Y22" s="11"/>
       <c r="Z22" s="12"/>
     </row>
-    <row r="23" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A23" s="24"/>
-      <c r="B23" s="25"/>
+    <row r="23" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
       <c r="E23" s="7"/>
@@ -1398,9 +1399,9 @@
       <c r="Y23" s="7"/>
       <c r="Z23" s="8"/>
     </row>
-    <row r="24" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27"/>
+    <row r="24" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="27"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
       <c r="E24" s="11"/>
@@ -1426,9 +1427,9 @@
       <c r="Y24" s="11"/>
       <c r="Z24" s="12"/>
     </row>
-    <row r="25" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
+    <row r="25" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
       <c r="E25" s="7"/>
@@ -1454,9 +1455,9 @@
       <c r="Y25" s="7"/>
       <c r="Z25" s="8"/>
     </row>
-    <row r="26" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A26" s="26"/>
-      <c r="B26" s="27"/>
+    <row r="26" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="27"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
       <c r="E26" s="11"/>
@@ -1482,9 +1483,9 @@
       <c r="Y26" s="11"/>
       <c r="Z26" s="12"/>
     </row>
-    <row r="27" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
+    <row r="27" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="25"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
       <c r="E27" s="7"/>
@@ -1510,9 +1511,9 @@
       <c r="Y27" s="7"/>
       <c r="Z27" s="8"/>
     </row>
-    <row r="28" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A28" s="26"/>
-      <c r="B28" s="27"/>
+    <row r="28" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="27"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
       <c r="E28" s="11"/>
@@ -1538,9 +1539,9 @@
       <c r="Y28" s="11"/>
       <c r="Z28" s="12"/>
     </row>
-    <row r="29" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A29" s="24"/>
-      <c r="B29" s="25"/>
+    <row r="29" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="25"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
       <c r="E29" s="7"/>
@@ -1566,9 +1567,9 @@
       <c r="Y29" s="7"/>
       <c r="Z29" s="8"/>
     </row>
-    <row r="30" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A30" s="26"/>
-      <c r="B30" s="27"/>
+    <row r="30" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="11"/>
       <c r="D30" s="12"/>
       <c r="E30" s="11"/>
@@ -1594,9 +1595,9 @@
       <c r="Y30" s="11"/>
       <c r="Z30" s="12"/>
     </row>
-    <row r="31" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A31" s="24"/>
-      <c r="B31" s="25"/>
+    <row r="31" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="25"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="7"/>
@@ -1622,9 +1623,9 @@
       <c r="Y31" s="7"/>
       <c r="Z31" s="8"/>
     </row>
-    <row r="32" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A32" s="26"/>
-      <c r="B32" s="27"/>
+    <row r="32" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="27"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="11"/>
       <c r="D32" s="12"/>
       <c r="E32" s="11"/>
@@ -1650,9 +1651,9 @@
       <c r="Y32" s="11"/>
       <c r="Z32" s="12"/>
     </row>
-    <row r="33" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A33" s="24"/>
-      <c r="B33" s="25"/>
+    <row r="33" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="25"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
       <c r="E33" s="7"/>
@@ -1678,9 +1679,9 @@
       <c r="Y33" s="7"/>
       <c r="Z33" s="8"/>
     </row>
-    <row r="34" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A34" s="26"/>
-      <c r="B34" s="27"/>
+    <row r="34" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="27"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="11"/>
       <c r="D34" s="12"/>
       <c r="E34" s="11"/>
@@ -1706,9 +1707,9 @@
       <c r="Y34" s="11"/>
       <c r="Z34" s="12"/>
     </row>
-    <row r="35" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A35" s="24"/>
-      <c r="B35" s="25"/>
+    <row r="35" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="25"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="7"/>
       <c r="D35" s="8"/>
       <c r="E35" s="7"/>
@@ -1734,9 +1735,9 @@
       <c r="Y35" s="7"/>
       <c r="Z35" s="8"/>
     </row>
-    <row r="36" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A36" s="26"/>
-      <c r="B36" s="27"/>
+    <row r="36" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="27"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="11"/>
       <c r="D36" s="12"/>
       <c r="E36" s="11"/>
@@ -1762,9 +1763,9 @@
       <c r="Y36" s="11"/>
       <c r="Z36" s="12"/>
     </row>
-    <row r="37" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A37" s="24"/>
-      <c r="B37" s="25"/>
+    <row r="37" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="25"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="7"/>
       <c r="D37" s="8"/>
       <c r="E37" s="7"/>
@@ -1790,7 +1791,7 @@
       <c r="Y37" s="7"/>
       <c r="Z37" s="8"/>
     </row>
-    <row r="38" spans="1:26" ht="11.25" customHeight="1">
+    <row r="38" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="17"/>
@@ -1818,273 +1819,386 @@
       <c r="Y38" s="17"/>
       <c r="Z38" s="17"/>
     </row>
-    <row r="39" spans="1:26" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="20"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="20"/>
-      <c r="Y39" s="19"/>
-      <c r="Z39" s="20"/>
-    </row>
-    <row r="40" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="29"/>
-      <c r="U40" s="29"/>
-      <c r="V40" s="29"/>
-      <c r="W40" s="29"/>
-      <c r="X40" s="29"/>
-      <c r="Y40" s="29"/>
-      <c r="Z40" s="29"/>
-    </row>
-    <row r="41" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A41" s="32"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="30"/>
-      <c r="X41" s="30"/>
-      <c r="Y41" s="30"/>
-      <c r="Z41" s="30"/>
-    </row>
-    <row r="42" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="29"/>
-      <c r="U42" s="29"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="29"/>
-      <c r="X42" s="29"/>
-      <c r="Y42" s="29"/>
-      <c r="Z42" s="29"/>
-    </row>
-    <row r="43" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="30"/>
-      <c r="U43" s="30"/>
-      <c r="V43" s="30"/>
-      <c r="W43" s="30"/>
-      <c r="X43" s="30"/>
-      <c r="Y43" s="30"/>
-      <c r="Z43" s="30"/>
-    </row>
-    <row r="44" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="29"/>
-      <c r="S44" s="29"/>
-      <c r="T44" s="29"/>
-      <c r="U44" s="29"/>
-      <c r="V44" s="29"/>
-      <c r="W44" s="29"/>
-      <c r="X44" s="29"/>
-      <c r="Y44" s="29"/>
-      <c r="Z44" s="29"/>
-    </row>
-    <row r="45" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A45" s="32"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="30"/>
-      <c r="T45" s="30"/>
-      <c r="U45" s="30"/>
-      <c r="V45" s="30"/>
-      <c r="W45" s="30"/>
-      <c r="X45" s="30"/>
-      <c r="Y45" s="30"/>
-      <c r="Z45" s="30"/>
-    </row>
-    <row r="46" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A46" s="31"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="29"/>
-      <c r="T46" s="29"/>
-      <c r="U46" s="29"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="29"/>
-      <c r="X46" s="29"/>
-      <c r="Y46" s="29"/>
-      <c r="Z46" s="29"/>
-    </row>
-    <row r="47" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="30"/>
-      <c r="S47" s="30"/>
-      <c r="T47" s="30"/>
-      <c r="U47" s="30"/>
-      <c r="V47" s="30"/>
-      <c r="W47" s="30"/>
-      <c r="X47" s="30"/>
-      <c r="Y47" s="30"/>
-      <c r="Z47" s="30"/>
+    <row r="39" spans="1:26" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="23"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="23"/>
+    </row>
+    <row r="40" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="21"/>
+    </row>
+    <row r="41" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="18"/>
+      <c r="Z41" s="18"/>
+    </row>
+    <row r="42" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="21"/>
+      <c r="Z42" s="21"/>
+    </row>
+    <row r="43" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="18"/>
+      <c r="X43" s="18"/>
+      <c r="Y43" s="18"/>
+      <c r="Z43" s="18"/>
+    </row>
+    <row r="44" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="21"/>
+      <c r="X44" s="21"/>
+      <c r="Y44" s="21"/>
+      <c r="Z44" s="21"/>
+    </row>
+    <row r="45" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="18"/>
+      <c r="V45" s="18"/>
+      <c r="W45" s="18"/>
+      <c r="X45" s="18"/>
+      <c r="Y45" s="18"/>
+      <c r="Z45" s="18"/>
+    </row>
+    <row r="46" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="21"/>
+      <c r="X46" s="21"/>
+      <c r="Y46" s="21"/>
+      <c r="Z46" s="21"/>
+    </row>
+    <row r="47" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="18"/>
+      <c r="R47" s="18"/>
+      <c r="S47" s="18"/>
+      <c r="T47" s="18"/>
+      <c r="U47" s="18"/>
+      <c r="V47" s="18"/>
+      <c r="W47" s="18"/>
+      <c r="X47" s="18"/>
+      <c r="Y47" s="18"/>
+      <c r="Z47" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="163">
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="W47:X47"/>
-    <mergeCell ref="Y47:Z47"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="Y40:Z40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
     <mergeCell ref="S45:T45"/>
     <mergeCell ref="U45:V45"/>
     <mergeCell ref="W45:X45"/>
@@ -2109,132 +2223,19 @@
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="K45:L45"/>
     <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="Y39:Z39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="Y40:Z40"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="W47:X47"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:R47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.98402777777777795" bottom="0.39374999999999999" header="0.39374999999999999" footer="0.51180555555555496"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR004.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR004.xlsx
@@ -46,6 +46,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>`</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -108,7 +116,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -117,7 +125,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -139,7 +149,7 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -178,6 +188,21 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="dotted">
         <color auto="1"/>
       </right>
@@ -193,88 +218,6 @@
       <left style="dotted">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -296,7 +239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -318,28 +261,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -349,46 +292,31 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -744,18 +672,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ47"/>
+  <dimension ref="A1:AMK47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="AC20" sqref="AC20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1024" width="5.42578125" style="1"/>
+    <col min="1" max="1025" width="4.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -766,12 +694,12 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
@@ -783,7 +711,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -811,7 +739,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -822,7 +750,9 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -839,7 +769,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -867,37 +797,37 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29"/>
-    </row>
-    <row r="6" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+    </row>
+    <row r="6" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
       <c r="E6" s="5"/>
@@ -923,9 +853,9 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
+    <row r="7" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="7"/>
@@ -951,9 +881,9 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="8"/>
     </row>
-    <row r="8" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
+    <row r="8" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="11"/>
       <c r="D8" s="12"/>
       <c r="E8" s="11"/>
@@ -979,9 +909,9 @@
       <c r="Y8" s="11"/>
       <c r="Z8" s="12"/>
     </row>
-    <row r="9" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
+    <row r="9" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
       <c r="E9" s="7"/>
@@ -1007,9 +937,9 @@
       <c r="Y9" s="7"/>
       <c r="Z9" s="8"/>
     </row>
-    <row r="10" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
+    <row r="10" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="11"/>
       <c r="D10" s="12"/>
       <c r="E10" s="11"/>
@@ -1035,9 +965,9 @@
       <c r="Y10" s="11"/>
       <c r="Z10" s="12"/>
     </row>
-    <row r="11" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
+    <row r="11" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="7"/>
@@ -1063,9 +993,9 @@
       <c r="Y11" s="7"/>
       <c r="Z11" s="8"/>
     </row>
-    <row r="12" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
+    <row r="12" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="11"/>
       <c r="D12" s="12"/>
       <c r="E12" s="11"/>
@@ -1091,9 +1021,9 @@
       <c r="Y12" s="11"/>
       <c r="Z12" s="12"/>
     </row>
-    <row r="13" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26"/>
+    <row r="13" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="7"/>
@@ -1119,9 +1049,9 @@
       <c r="Y13" s="7"/>
       <c r="Z13" s="8"/>
     </row>
-    <row r="14" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
+    <row r="14" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="11"/>
       <c r="D14" s="12"/>
       <c r="E14" s="11"/>
@@ -1147,9 +1077,9 @@
       <c r="Y14" s="11"/>
       <c r="Z14" s="12"/>
     </row>
-    <row r="15" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26"/>
+    <row r="15" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
       <c r="E15" s="7"/>
@@ -1175,9 +1105,9 @@
       <c r="Y15" s="7"/>
       <c r="Z15" s="8"/>
     </row>
-    <row r="16" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
+    <row r="16" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
       <c r="E16" s="11"/>
@@ -1203,9 +1133,9 @@
       <c r="Y16" s="11"/>
       <c r="Z16" s="12"/>
     </row>
-    <row r="17" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
+    <row r="17" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="7"/>
@@ -1231,9 +1161,9 @@
       <c r="Y17" s="7"/>
       <c r="Z17" s="8"/>
     </row>
-    <row r="18" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
+    <row r="18" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
       <c r="E18" s="11"/>
@@ -1259,9 +1189,9 @@
       <c r="Y18" s="11"/>
       <c r="Z18" s="12"/>
     </row>
-    <row r="19" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
+    <row r="19" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
       <c r="E19" s="7"/>
@@ -1287,9 +1217,9 @@
       <c r="Y19" s="7"/>
       <c r="Z19" s="8"/>
     </row>
-    <row r="20" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
+    <row r="20" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
       <c r="E20" s="11"/>
@@ -1315,9 +1245,9 @@
       <c r="Y20" s="11"/>
       <c r="Z20" s="12"/>
     </row>
-    <row r="21" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26"/>
+    <row r="21" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="7"/>
       <c r="D21" s="8"/>
       <c r="E21" s="7"/>
@@ -1343,9 +1273,9 @@
       <c r="Y21" s="7"/>
       <c r="Z21" s="8"/>
     </row>
-    <row r="22" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
+    <row r="22" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
       <c r="E22" s="11"/>
@@ -1371,9 +1301,9 @@
       <c r="Y22" s="11"/>
       <c r="Z22" s="12"/>
     </row>
-    <row r="23" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
-      <c r="B23" s="26"/>
+    <row r="23" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
       <c r="E23" s="7"/>
@@ -1399,9 +1329,9 @@
       <c r="Y23" s="7"/>
       <c r="Z23" s="8"/>
     </row>
-    <row r="24" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
+    <row r="24" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
       <c r="E24" s="11"/>
@@ -1427,9 +1357,9 @@
       <c r="Y24" s="11"/>
       <c r="Z24" s="12"/>
     </row>
-    <row r="25" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26"/>
+    <row r="25" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
       <c r="E25" s="7"/>
@@ -1455,9 +1385,9 @@
       <c r="Y25" s="7"/>
       <c r="Z25" s="8"/>
     </row>
-    <row r="26" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
+    <row r="26" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
       <c r="E26" s="11"/>
@@ -1483,9 +1413,9 @@
       <c r="Y26" s="11"/>
       <c r="Z26" s="12"/>
     </row>
-    <row r="27" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
-      <c r="B27" s="26"/>
+    <row r="27" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
       <c r="E27" s="7"/>
@@ -1511,9 +1441,9 @@
       <c r="Y27" s="7"/>
       <c r="Z27" s="8"/>
     </row>
-    <row r="28" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
+    <row r="28" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
       <c r="E28" s="11"/>
@@ -1539,9 +1469,9 @@
       <c r="Y28" s="11"/>
       <c r="Z28" s="12"/>
     </row>
-    <row r="29" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25"/>
-      <c r="B29" s="26"/>
+    <row r="29" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
       <c r="E29" s="7"/>
@@ -1567,9 +1497,9 @@
       <c r="Y29" s="7"/>
       <c r="Z29" s="8"/>
     </row>
-    <row r="30" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
+    <row r="30" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="11"/>
       <c r="D30" s="12"/>
       <c r="E30" s="11"/>
@@ -1595,9 +1525,9 @@
       <c r="Y30" s="11"/>
       <c r="Z30" s="12"/>
     </row>
-    <row r="31" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25"/>
-      <c r="B31" s="26"/>
+    <row r="31" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="7"/>
@@ -1623,9 +1553,9 @@
       <c r="Y31" s="7"/>
       <c r="Z31" s="8"/>
     </row>
-    <row r="32" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="27"/>
-      <c r="B32" s="28"/>
+    <row r="32" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="11"/>
       <c r="D32" s="12"/>
       <c r="E32" s="11"/>
@@ -1651,9 +1581,9 @@
       <c r="Y32" s="11"/>
       <c r="Z32" s="12"/>
     </row>
-    <row r="33" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="26"/>
+    <row r="33" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
       <c r="E33" s="7"/>
@@ -1679,9 +1609,9 @@
       <c r="Y33" s="7"/>
       <c r="Z33" s="8"/>
     </row>
-    <row r="34" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="27"/>
-      <c r="B34" s="28"/>
+    <row r="34" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="11"/>
       <c r="D34" s="12"/>
       <c r="E34" s="11"/>
@@ -1707,9 +1637,9 @@
       <c r="Y34" s="11"/>
       <c r="Z34" s="12"/>
     </row>
-    <row r="35" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25"/>
-      <c r="B35" s="26"/>
+    <row r="35" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="7"/>
       <c r="D35" s="8"/>
       <c r="E35" s="7"/>
@@ -1735,9 +1665,9 @@
       <c r="Y35" s="7"/>
       <c r="Z35" s="8"/>
     </row>
-    <row r="36" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="27"/>
-      <c r="B36" s="28"/>
+    <row r="36" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="11"/>
       <c r="D36" s="12"/>
       <c r="E36" s="11"/>
@@ -1763,9 +1693,9 @@
       <c r="Y36" s="11"/>
       <c r="Z36" s="12"/>
     </row>
-    <row r="37" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25"/>
-      <c r="B37" s="26"/>
+    <row r="37" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="7"/>
       <c r="D37" s="8"/>
       <c r="E37" s="7"/>
@@ -1791,7 +1721,7 @@
       <c r="Y37" s="7"/>
       <c r="Z37" s="8"/>
     </row>
-    <row r="38" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="17"/>
@@ -1819,37 +1749,37 @@
       <c r="Y38" s="17"/>
       <c r="Z38" s="17"/>
     </row>
-    <row r="39" spans="1:26" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="23"/>
+      <c r="B39" s="22"/>
       <c r="C39" s="22"/>
-      <c r="D39" s="23"/>
+      <c r="D39" s="22"/>
       <c r="E39" s="22"/>
-      <c r="F39" s="23"/>
+      <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="23"/>
+      <c r="H39" s="22"/>
       <c r="I39" s="22"/>
-      <c r="J39" s="23"/>
+      <c r="J39" s="22"/>
       <c r="K39" s="22"/>
-      <c r="L39" s="23"/>
+      <c r="L39" s="22"/>
       <c r="M39" s="22"/>
-      <c r="N39" s="23"/>
+      <c r="N39" s="22"/>
       <c r="O39" s="22"/>
-      <c r="P39" s="23"/>
+      <c r="P39" s="22"/>
       <c r="Q39" s="22"/>
-      <c r="R39" s="23"/>
+      <c r="R39" s="22"/>
       <c r="S39" s="22"/>
-      <c r="T39" s="23"/>
+      <c r="T39" s="22"/>
       <c r="U39" s="22"/>
-      <c r="V39" s="23"/>
+      <c r="V39" s="22"/>
       <c r="W39" s="22"/>
-      <c r="X39" s="23"/>
+      <c r="X39" s="22"/>
       <c r="Y39" s="22"/>
-      <c r="Z39" s="23"/>
-    </row>
-    <row r="40" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
+      <c r="Z39" s="22"/>
+    </row>
+    <row r="40" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
@@ -1875,7 +1805,7 @@
       <c r="Y40" s="21"/>
       <c r="Z40" s="21"/>
     </row>
-    <row r="41" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="19"/>
       <c r="C41" s="18"/>
@@ -1903,7 +1833,7 @@
       <c r="Y41" s="18"/>
       <c r="Z41" s="18"/>
     </row>
-    <row r="42" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="21"/>
@@ -1931,7 +1861,7 @@
       <c r="Y42" s="21"/>
       <c r="Z42" s="21"/>
     </row>
-    <row r="43" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
       <c r="B43" s="19"/>
       <c r="C43" s="18"/>
@@ -1959,7 +1889,7 @@
       <c r="Y43" s="18"/>
       <c r="Z43" s="18"/>
     </row>
-    <row r="44" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="20"/>
       <c r="B44" s="20"/>
       <c r="C44" s="21"/>
@@ -1987,7 +1917,7 @@
       <c r="Y44" s="21"/>
       <c r="Z44" s="21"/>
     </row>
-    <row r="45" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
       <c r="B45" s="19"/>
       <c r="C45" s="18"/>
@@ -2015,7 +1945,7 @@
       <c r="Y45" s="18"/>
       <c r="Z45" s="18"/>
     </row>
-    <row r="46" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="20"/>
       <c r="B46" s="20"/>
       <c r="C46" s="21"/>
@@ -2043,7 +1973,7 @@
       <c r="Y46" s="21"/>
       <c r="Z46" s="21"/>
     </row>
-    <row r="47" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
       <c r="C47" s="18"/>
@@ -2238,8 +2168,8 @@
     <mergeCell ref="Q47:R47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.98402777777777795" bottom="0.39374999999999999" header="0.39374999999999999" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" scale="83" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="1.3" bottom="0.3" header="1" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"ＭＳ ゴシック,Regular"日通システム株式会社&amp;C&amp;"ＭＳ ゴシック,Regular"&amp;16年間勤務台帳&amp;R&amp;"ＭＳ ゴシック,Regular"yyyy/mm/dd HH:MM　
 page&amp;P</oddHeader>
